--- a/Forwarding_ControlUnit/Comparisons.xlsx
+++ b/Forwarding_ControlUnit/Comparisons.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9492C576-E705-4BD4-80D4-7234F7CE4125}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA788949-DCA8-4840-B2D2-A2E67D8F422C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
   <si>
     <t>Gli OPCODE di interesse sono REG, IMM, LW, SW e JMP</t>
   </si>
@@ -203,6 +203,171 @@
   </si>
   <si>
     <t>RILS = Reg, Imm, Load, Store</t>
+  </si>
+  <si>
+    <t>Add r4, r2, r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  F DS  EMW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  F S D EMW</t>
+  </si>
+  <si>
+    <t>I2 = JMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  F S S D EMW</t>
+  </si>
+  <si>
+    <t>I1 = RIS</t>
+  </si>
+  <si>
+    <t>(ID/EX.Opcode = LW &amp;&amp; IF/ID.Opcode = REG || IMM || SW || LW)</t>
+  </si>
+  <si>
+    <t>&amp;&amp; (ID/EX.11..15 = IF/ID6..10 || IF/ID11..15) se IF/ID.Opcode = REG</t>
+  </si>
+  <si>
+    <t>&amp;&amp; (ID/EX.11..15 = IF/ID6..10) se IF/ID.Opcode = IMM || SW || LW</t>
+  </si>
+  <si>
+    <t>(ID/EX.Opcode = LW &amp;&amp; IF/ID.Opcode = JMP) &amp;&amp; ID/EX.11.15 = IF/ID6..10 1°STALL</t>
+  </si>
+  <si>
+    <t>(EX/MEM.Opcode = LW &amp;&amp; IF/ID.Opcode = JMP) &amp;&amp; EX/MEM11..15 = IF/ID6..10 2° STALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ID/EX.Opcode = REG || IMM || SW  &amp;&amp; IF/ID.Opcode = JMP) </t>
+  </si>
+  <si>
+    <t>&amp;&amp; (ID/EX.16..20 || ID/EX11..15) = (IF/ID6..10)</t>
+  </si>
+  <si>
+    <t>IF/ID.Opcode</t>
+  </si>
+  <si>
+    <t>ID/EX.Opcode</t>
+  </si>
+  <si>
+    <t>EX/MEM.Opcode</t>
+  </si>
+  <si>
+    <t>MEM/WB.Opcode</t>
+  </si>
+  <si>
+    <t>IF/ID.IR</t>
+  </si>
+  <si>
+    <t>ID/EX.IR</t>
+  </si>
+  <si>
+    <t>EX/MEM.IR</t>
+  </si>
+  <si>
+    <t>MEM/WB.IR</t>
+  </si>
+  <si>
+    <t>IF/ID6..10</t>
+  </si>
+  <si>
+    <t>IF/ID11..15</t>
+  </si>
+  <si>
+    <t>EX/MEM16..20</t>
+  </si>
+  <si>
+    <t>ID/EX6..10</t>
+  </si>
+  <si>
+    <t>ID/EX11..15</t>
+  </si>
+  <si>
+    <t>MEM/WB16..20</t>
+  </si>
+  <si>
+    <t>EX/MEM11..15</t>
+  </si>
+  <si>
+    <t>MEM/WB11..15</t>
+  </si>
+  <si>
+    <t>EX/MEM -&gt; ID/EX</t>
+  </si>
+  <si>
+    <t>EX/MEM.Op = REG &amp;&amp; ID/EX.Op = RISL &amp;&amp; EX/MEM16..20 = ID/EX6..10</t>
+  </si>
+  <si>
+    <t>TOP ALU</t>
+  </si>
+  <si>
+    <t>EX/MEM.Op = REG &amp;&amp; ID/EX.Op = REG &amp;&amp; EX/MEM16..20 = ID/EX11..15</t>
+  </si>
+  <si>
+    <t>BOT ALU</t>
+  </si>
+  <si>
+    <t>EX/MEM-Op = IMM &amp;&amp; ID/EX.OP = RISL  &amp;&amp; EX/MEM11..15 = ID/EX6..10</t>
+  </si>
+  <si>
+    <t>EX/MEM.Op = IMM &amp;&amp; ID/EX.OP = REG &amp;&amp; EX/MEM11..15 = ID/EX11..15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  F S D E MW</t>
+  </si>
+  <si>
+    <t>EX/MEM -&gt; IF/ID</t>
+  </si>
+  <si>
+    <t>EX/MEM.OP = REG &amp;&amp; IF/ID.Op = JMP &amp;&amp; EX/MEM16..20 = IF/ID6..10</t>
+  </si>
+  <si>
+    <t>MEM/WB -&gt; ID/EX</t>
+  </si>
+  <si>
+    <t>MEM/WB.Op = REG &amp;&amp; ID/EX.Op = RISL &amp;&amp; MEM/WB16..20 = ID/EX6..10</t>
+  </si>
+  <si>
+    <t>MEM/WB.Op = REG &amp;&amp; ID/EX.Op = REG &amp;&amp; MEM/WB16..20 = ID/EX11..15</t>
+  </si>
+  <si>
+    <t>MEM/WB.Op = IL &amp;&amp; ID/EX.Op = RISL &amp;&amp; MEM/WB11..15 = ID/EX6..10</t>
+  </si>
+  <si>
+    <t>MEM/WB.Op = IL &amp;&amp; ID/EX.Op = REG &amp;&amp; MEM/WB11..15 = ID/EX11..15</t>
+  </si>
+  <si>
+    <t>MEM/WB -&gt; EX/MEM</t>
+  </si>
+  <si>
+    <t>MEM/WB.Op = REG &amp;&amp; EX/MEM.Op = SW &amp;&amp; MEM/WB16..20 = EX/MEM11..15</t>
+  </si>
+  <si>
+    <t>MEM/WB.Op = IL &amp;&amp; EX/MEM.Op = SW &amp;&amp; MEM/WB11..15 = EX/MEM11..15</t>
+  </si>
+  <si>
+    <t>MEM/WB -&gt; IF/ID</t>
+  </si>
+  <si>
+    <t>MEM/WB.Op = LW &amp;&amp; IF/ID.Op = JMP &amp;&amp; MEM/WB11..15 = IF/ID6..10</t>
+  </si>
+  <si>
+    <t>Preferisco il 2° scenario</t>
+  </si>
+  <si>
+    <t>ID/EX.Op = LW &amp;&amp;IF/ID.Op = REG &amp;&amp; ID/EX11..15 = IF/ID6..10 || IF/ID11..15</t>
+  </si>
+  <si>
+    <t>ID/EX.Op = LW &amp;&amp;IF/ID.Op = ISLJ &amp;&amp; ID/EX11..15 = IF/ID6..10</t>
+  </si>
+  <si>
+    <t>EX/MEM.Op = LW &amp;&amp; IF/ID.Op = JMP &amp;&amp; EX/MEM11..15 = IF/ID6..10</t>
+  </si>
+  <si>
+    <t>ID/EX.Op = REG &amp;&amp; IF/ID.Op = JMP &amp;&amp; ID/EX16..20 = IF/ID6..10</t>
+  </si>
+  <si>
+    <t>ID/EX.Op = IS &amp;&amp; IF/ID.Op = JMP &amp;&amp; ID/EX11..15 = IF/ID6..10</t>
   </si>
 </sst>
 </file>
@@ -242,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,8 +450,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -294,11 +465,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -312,6 +563,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -592,15 +859,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="B77" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -897,7 +1164,7 @@
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.35">
@@ -941,16 +1208,797 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K49" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="M49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S49" t="s">
+        <v>106</v>
+      </c>
+      <c r="V49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K50" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
+      <c r="M50" t="s">
+        <v>57</v>
+      </c>
+      <c r="O50" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="V51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="K53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M53" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="K54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M54" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="V54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="K57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M57" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="11:22" x14ac:dyDescent="0.3">
+      <c r="K58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M58" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="15"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="18"/>
+    </row>
+    <row r="72" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="18"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="18"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A74" s="22"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="18"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A75" s="22"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="18"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A76" s="22"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="18"/>
+    </row>
+    <row r="77" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="18"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="18"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="18"/>
+    </row>
+    <row r="80" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A80" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="18"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A81" s="25"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="18"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A82" s="25"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="18"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A83" s="25"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="17"/>
+      <c r="V83" s="17"/>
+      <c r="W83" s="18"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A84" s="25"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="18"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A85" s="25"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="17"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="18"/>
+    </row>
+    <row r="86" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A86" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="18"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A87" s="25"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="18"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A88" s="25"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="18"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A89" s="25"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="17"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="18"/>
+    </row>
+    <row r="90" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="18"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A91" s="25"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="18"/>
+    </row>
+    <row r="92" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="26"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27"/>
+      <c r="T92" s="27"/>
+      <c r="U92" s="27"/>
+      <c r="V92" s="27"/>
+      <c r="W92" s="28"/>
+    </row>
+    <row r="93" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Forwarding_ControlUnit/Comparisons.xlsx
+++ b/Forwarding_ControlUnit/Comparisons.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA788949-DCA8-4840-B2D2-A2E67D8F422C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6005C38F-260F-4BC7-881C-18CB2B2348F0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
   <si>
     <t>Gli OPCODE di interesse sono REG, IMM, LW, SW e JMP</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>ID/EX.Op = IS &amp;&amp; IF/ID.Op = JMP &amp;&amp; ID/EX11..15 = IF/ID6..10</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -861,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B77" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,7 +1421,9 @@
         <v>86</v>
       </c>
       <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
+      <c r="C72" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="D72" s="20" t="s">
         <v>87</v>
       </c>
@@ -1567,7 +1572,9 @@
         <v>94</v>
       </c>
       <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
+      <c r="C77" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
@@ -1650,7 +1657,9 @@
         <v>96</v>
       </c>
       <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
+      <c r="C80" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
@@ -1924,7 +1933,9 @@
         <v>104</v>
       </c>
       <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
+      <c r="C90" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
